--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Left Side</t>
   </si>
@@ -23,13 +23,7 @@
     <t>Middle</t>
   </si>
   <si>
-    <t>cadcasfsa</t>
-  </si>
-  <si>
-    <t>sacsa</t>
-  </si>
-  <si>
-    <t>csacsa</t>
+    <t>xcxzczxcx</t>
   </si>
 </sst>
 </file>
@@ -74,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -92,33 +86,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,18 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Left Side</t>
+    <t>Fruits</t>
   </si>
   <si>
-    <t>Right Side</t>
+    <t>Vegetables</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
-    <t>xcxzczxcx</t>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Potato</t>
   </si>
 </sst>
 </file>
@@ -68,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,8 +104,30 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,36 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>Fruits</t>
+    <t>dscd</t>
   </si>
   <si>
-    <t>Vegetables</t>
+    <t>dscsdcs</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
-    <t>Apple</t>
+    <t>dscds</t>
   </si>
   <si>
-    <t>Eggplant</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Potato</t>
+    <t>sdcds</t>
   </si>
 </sst>
 </file>
@@ -86,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,23 +96,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,21 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>dscd</t>
+    <t>Left Side</t>
   </si>
   <si>
-    <t>dscsdcs</t>
+    <t>Right Side</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
-    <t>dscds</t>
-  </si>
-  <si>
-    <t>sdcds</t>
+    <t>eric</t>
   </si>
 </sst>
 </file>
@@ -89,13 +86,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,18 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Left Side</t>
   </si>
   <si>
-    <t>Right Side</t>
+    <t>a</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
-    <t>eric</t>
+    <t>ERIC1</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>ERIC3</t>
   </si>
 </sst>
 </file>
@@ -86,8 +92,14 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,24 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Left Side</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Right Side</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
-    <t>ERIC1</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>ERIC3</t>
+    <t>dcsdd</t>
   </si>
 </sst>
 </file>
@@ -74,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -92,14 +86,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -23,7 +23,7 @@
     <t>Middle</t>
   </si>
   <si>
-    <t>dcsdd</t>
+    <t>vdvfd</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,7 +86,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Left Side</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Middle</t>
   </si>
   <si>
-    <t>vdvfd</t>
+    <t>vsdv</t>
+  </si>
+  <si>
+    <t>svsd</t>
   </si>
 </sst>
 </file>
@@ -86,8 +89,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Left Side</t>
   </si>
@@ -23,10 +23,10 @@
     <t>Middle</t>
   </si>
   <si>
-    <t>vsdv</t>
+    <t>1</t>
   </si>
   <si>
-    <t>svsd</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +93,14 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Left Side</t>
   </si>
@@ -23,10 +23,7 @@
     <t>Middle</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>csdcds</t>
   </si>
 </sst>
 </file>
@@ -71,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -89,19 +86,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/VennFX/Results.xlsx
+++ b/VennFX/Results.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Left Side</t>
   </si>
   <si>
-    <t>Right Side</t>
+    <t>bdfbd</t>
   </si>
   <si>
     <t>Middle</t>
   </si>
   <si>
-    <t>csdcds</t>
+    <t>fbf</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,12 +86,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
